--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -5714,8 +5714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K673"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A651" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:K673"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E491" sqref="E491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21323,7 +21323,7 @@
         <v>11</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>76</v>
+        <v>1183</v>
       </c>
       <c r="G491" s="5" t="s">
         <v>76</v>

--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="1754">
   <si>
     <t>Type</t>
   </si>
@@ -4312,9 +4312,6 @@
     <t>13,280 Sq. Ft.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4,731 Sq. Ft.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7,707 Sq. Ft.</t>
   </si>
   <si>
@@ -5297,6 +5294,12 @@
   </si>
   <si>
     <t>Commercial</t>
+  </si>
+  <si>
+    <t>4,731 Sq. Ft.</t>
+  </si>
+  <si>
+    <t>35,937 Sq. Ft.</t>
   </si>
 </sst>
 </file>
@@ -5714,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K673"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E491" sqref="E491"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7941,7 +7944,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -7953,13 +7956,13 @@
         <v>12</v>
       </c>
       <c r="G73" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H73" t="s">
         <v>1749</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>1750</v>
-      </c>
-      <c r="I73" t="s">
-        <v>1751</v>
       </c>
       <c r="J73" t="s">
         <v>212</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="75" spans="2:11" ht="15">
       <c r="B75" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C75" t="s">
         <v>107</v>
@@ -8034,7 +8037,7 @@
     </row>
     <row r="76" spans="2:11" ht="15">
       <c r="B76" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C76" t="s">
         <v>109</v>
@@ -8066,7 +8069,7 @@
     </row>
     <row r="77" spans="2:11" ht="15">
       <c r="B77" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C77" t="s">
         <v>110</v>
@@ -8098,7 +8101,7 @@
     </row>
     <row r="78" spans="2:11" ht="15">
       <c r="B78" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C78" t="s">
         <v>111</v>
@@ -8130,7 +8133,7 @@
     </row>
     <row r="79" spans="2:11" ht="15">
       <c r="B79" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C79" t="s">
         <v>112</v>
@@ -8162,7 +8165,7 @@
     </row>
     <row r="80" spans="2:11" ht="15">
       <c r="B80" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C80" t="s">
         <v>113</v>
@@ -8194,7 +8197,7 @@
     </row>
     <row r="81" spans="2:11" ht="15">
       <c r="B81" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C81" t="s">
         <v>115</v>
@@ -8226,7 +8229,7 @@
     </row>
     <row r="82" spans="2:11" ht="15">
       <c r="B82" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C82" t="s">
         <v>116</v>
@@ -8258,7 +8261,7 @@
     </row>
     <row r="83" spans="2:11" ht="15">
       <c r="B83" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C83" t="s">
         <v>117</v>
@@ -8290,7 +8293,7 @@
     </row>
     <row r="84" spans="2:11" ht="15">
       <c r="B84" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C84" t="s">
         <v>118</v>
@@ -8322,7 +8325,7 @@
     </row>
     <row r="85" spans="2:11" ht="15">
       <c r="B85" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C85" t="s">
         <v>119</v>
@@ -8354,7 +8357,7 @@
     </row>
     <row r="86" spans="2:11" ht="15">
       <c r="B86" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C86" t="s">
         <v>120</v>
@@ -8386,7 +8389,7 @@
     </row>
     <row r="87" spans="2:11" ht="15">
       <c r="B87" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C87" t="s">
         <v>121</v>
@@ -8418,7 +8421,7 @@
     </row>
     <row r="88" spans="2:11" ht="15">
       <c r="B88" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C88" t="s">
         <v>122</v>
@@ -8450,7 +8453,7 @@
     </row>
     <row r="89" spans="2:11" ht="15">
       <c r="B89" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C89" t="s">
         <v>123</v>
@@ -8482,7 +8485,7 @@
     </row>
     <row r="90" spans="2:11" ht="15">
       <c r="B90" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C90" t="s">
         <v>125</v>
@@ -8514,7 +8517,7 @@
     </row>
     <row r="91" spans="2:11" ht="15">
       <c r="B91" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C91" t="s">
         <v>126</v>
@@ -8546,7 +8549,7 @@
     </row>
     <row r="92" spans="2:11" ht="15">
       <c r="B92" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C92" t="s">
         <v>127</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="93" spans="2:11" ht="15">
       <c r="B93" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C93" t="s">
         <v>128</v>
@@ -8610,7 +8613,7 @@
     </row>
     <row r="94" spans="2:11" ht="15">
       <c r="B94" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C94" t="s">
         <v>129</v>
@@ -8642,7 +8645,7 @@
     </row>
     <row r="95" spans="2:11" ht="15">
       <c r="B95" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C95" t="s">
         <v>131</v>
@@ -8674,7 +8677,7 @@
     </row>
     <row r="96" spans="2:11" ht="15">
       <c r="B96" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C96" t="s">
         <v>132</v>
@@ -8706,7 +8709,7 @@
     </row>
     <row r="97" spans="2:11" ht="15">
       <c r="B97" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C97" t="s">
         <v>133</v>
@@ -8738,7 +8741,7 @@
     </row>
     <row r="98" spans="2:11" ht="15">
       <c r="B98" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C98" t="s">
         <v>134</v>
@@ -8770,7 +8773,7 @@
     </row>
     <row r="99" spans="2:11" ht="15">
       <c r="B99" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C99" t="s">
         <v>1110</v>
@@ -8802,7 +8805,7 @@
     </row>
     <row r="100" spans="2:11" ht="15">
       <c r="B100" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C100" t="s">
         <v>135</v>
@@ -8834,7 +8837,7 @@
     </row>
     <row r="101" spans="2:11" ht="15">
       <c r="B101" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C101" t="s">
         <v>136</v>
@@ -8866,7 +8869,7 @@
     </row>
     <row r="102" spans="2:11" ht="15">
       <c r="B102" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C102" t="s">
         <v>1124</v>
@@ -8898,7 +8901,7 @@
     </row>
     <row r="103" spans="2:11" ht="15">
       <c r="B103" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C103" t="s">
         <v>137</v>
@@ -8930,7 +8933,7 @@
     </row>
     <row r="104" spans="2:11" ht="15">
       <c r="B104" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C104" t="s">
         <v>138</v>
@@ -8962,7 +8965,7 @@
     </row>
     <row r="105" spans="2:11" ht="15">
       <c r="B105" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C105" t="s">
         <v>138</v>
@@ -8994,7 +8997,7 @@
     </row>
     <row r="106" spans="2:11" ht="15">
       <c r="B106" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C106" t="s">
         <v>139</v>
@@ -9026,7 +9029,7 @@
     </row>
     <row r="107" spans="2:11" ht="15">
       <c r="B107" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C107" t="s">
         <v>141</v>
@@ -9058,7 +9061,7 @@
     </row>
     <row r="108" spans="2:11" ht="15">
       <c r="B108" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C108" t="s">
         <v>142</v>
@@ -9090,7 +9093,7 @@
     </row>
     <row r="109" spans="2:11" ht="15">
       <c r="B109" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C109" t="s">
         <v>143</v>
@@ -9122,7 +9125,7 @@
     </row>
     <row r="110" spans="2:11" ht="15">
       <c r="B110" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C110" t="s">
         <v>144</v>
@@ -9154,7 +9157,7 @@
     </row>
     <row r="111" spans="2:11" ht="15">
       <c r="B111" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C111" t="s">
         <v>145</v>
@@ -9186,7 +9189,7 @@
     </row>
     <row r="112" spans="2:11" ht="15">
       <c r="B112" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C112" t="s">
         <v>146</v>
@@ -9218,7 +9221,7 @@
     </row>
     <row r="113" spans="2:11" ht="15">
       <c r="B113" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C113" t="s">
         <v>147</v>
@@ -9250,7 +9253,7 @@
     </row>
     <row r="114" spans="2:11" ht="15">
       <c r="B114" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C114" t="s">
         <v>149</v>
@@ -9282,7 +9285,7 @@
     </row>
     <row r="115" spans="2:11" ht="15">
       <c r="B115" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C115" t="s">
         <v>150</v>
@@ -9314,7 +9317,7 @@
     </row>
     <row r="116" spans="2:11" ht="15">
       <c r="B116" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C116" t="s">
         <v>151</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="117" spans="2:11" ht="15">
       <c r="B117" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C117" t="s">
         <v>152</v>
@@ -9378,7 +9381,7 @@
     </row>
     <row r="118" spans="2:11" ht="15">
       <c r="B118" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C118" t="s">
         <v>153</v>
@@ -9410,7 +9413,7 @@
     </row>
     <row r="119" spans="2:11" ht="15">
       <c r="B119" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C119" t="s">
         <v>154</v>
@@ -9442,7 +9445,7 @@
     </row>
     <row r="120" spans="2:11" ht="15">
       <c r="B120" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C120" t="s">
         <v>155</v>
@@ -9474,7 +9477,7 @@
     </row>
     <row r="121" spans="2:11" ht="15">
       <c r="B121" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C121" t="s">
         <v>157</v>
@@ -9506,7 +9509,7 @@
     </row>
     <row r="122" spans="2:11" ht="15">
       <c r="B122" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C122" t="s">
         <v>157</v>
@@ -9538,7 +9541,7 @@
     </row>
     <row r="123" spans="2:11" ht="15">
       <c r="B123" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C123" t="s">
         <v>158</v>
@@ -9570,7 +9573,7 @@
     </row>
     <row r="124" spans="2:11" ht="15">
       <c r="B124" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C124" t="s">
         <v>159</v>
@@ -9602,7 +9605,7 @@
     </row>
     <row r="125" spans="2:11" ht="14.25" customHeight="1">
       <c r="B125" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C125" t="s">
         <v>160</v>
@@ -9634,7 +9637,7 @@
     </row>
     <row r="126" spans="2:11" ht="15">
       <c r="B126" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C126" t="s">
         <v>161</v>
@@ -9666,7 +9669,7 @@
     </row>
     <row r="127" spans="2:11" ht="15">
       <c r="B127" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C127" t="s">
         <v>162</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="128" spans="2:11" ht="15">
       <c r="B128" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C128" t="s">
         <v>163</v>
@@ -9730,7 +9733,7 @@
     </row>
     <row r="129" spans="2:11" ht="15">
       <c r="B129" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C129" t="s">
         <v>164</v>
@@ -9762,7 +9765,7 @@
     </row>
     <row r="130" spans="2:11" ht="15">
       <c r="B130" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C130" t="s">
         <v>165</v>
@@ -9794,7 +9797,7 @@
     </row>
     <row r="131" spans="2:11" ht="15">
       <c r="B131" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C131" t="s">
         <v>166</v>
@@ -9826,7 +9829,7 @@
     </row>
     <row r="132" spans="2:11" ht="15">
       <c r="B132" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C132" t="s">
         <v>1125</v>
@@ -9858,7 +9861,7 @@
     </row>
     <row r="133" spans="2:11" ht="15">
       <c r="B133" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C133" t="s">
         <v>167</v>
@@ -9890,7 +9893,7 @@
     </row>
     <row r="134" spans="2:11" ht="15">
       <c r="B134" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C134" t="s">
         <v>168</v>
@@ -9922,7 +9925,7 @@
     </row>
     <row r="135" spans="2:11" ht="15">
       <c r="B135" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C135" t="s">
         <v>169</v>
@@ -9954,7 +9957,7 @@
     </row>
     <row r="136" spans="2:11" ht="15">
       <c r="B136" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C136" t="s">
         <v>170</v>
@@ -9986,7 +9989,7 @@
     </row>
     <row r="137" spans="2:11" ht="15">
       <c r="B137" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>343</v>
@@ -10018,7 +10021,7 @@
     </row>
     <row r="138" spans="2:11" ht="15">
       <c r="B138" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>1256</v>
@@ -10050,7 +10053,7 @@
     </row>
     <row r="139" spans="2:11" ht="15">
       <c r="B139" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>1258</v>
@@ -10082,7 +10085,7 @@
     </row>
     <row r="140" spans="2:11" ht="15">
       <c r="B140" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C140" t="s">
         <v>173</v>
@@ -10114,7 +10117,7 @@
     </row>
     <row r="141" spans="2:11" ht="15">
       <c r="B141" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C141" t="s">
         <v>175</v>
@@ -10146,7 +10149,7 @@
     </row>
     <row r="142" spans="2:11" ht="15">
       <c r="B142" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C142" t="s">
         <v>1262</v>
@@ -10178,7 +10181,7 @@
     </row>
     <row r="143" spans="2:11" ht="15">
       <c r="B143" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C143" t="s">
         <v>179</v>
@@ -10210,7 +10213,7 @@
     </row>
     <row r="144" spans="2:11" ht="15">
       <c r="B144" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C144" t="s">
         <v>1264</v>
@@ -10242,7 +10245,7 @@
     </row>
     <row r="145" spans="2:11" ht="15">
       <c r="B145" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C145" t="s">
         <v>181</v>
@@ -10274,7 +10277,7 @@
     </row>
     <row r="146" spans="2:11" ht="15">
       <c r="B146" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C146" t="s">
         <v>183</v>
@@ -10306,7 +10309,7 @@
     </row>
     <row r="147" spans="2:11" ht="15">
       <c r="B147" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C147" t="s">
         <v>186</v>
@@ -10338,7 +10341,7 @@
     </row>
     <row r="148" spans="2:11" ht="15">
       <c r="B148" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C148" t="s">
         <v>188</v>
@@ -10370,7 +10373,7 @@
     </row>
     <row r="149" spans="2:11" ht="15">
       <c r="B149" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C149" t="s">
         <v>1271</v>
@@ -10402,7 +10405,7 @@
     </row>
     <row r="150" spans="2:11" ht="15">
       <c r="B150" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C150" t="s">
         <v>722</v>
@@ -10434,7 +10437,7 @@
     </row>
     <row r="151" spans="2:11" ht="15">
       <c r="B151" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C151" t="s">
         <v>190</v>
@@ -10466,7 +10469,7 @@
     </row>
     <row r="152" spans="2:11" ht="15">
       <c r="B152" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C152" t="s">
         <v>1277</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="153" spans="2:11" ht="15">
       <c r="B153" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C153" t="s">
         <v>192</v>
@@ -10530,7 +10533,7 @@
     </row>
     <row r="154" spans="2:11" ht="15">
       <c r="B154" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C154" t="s">
         <v>194</v>
@@ -10562,7 +10565,7 @@
     </row>
     <row r="155" spans="2:11" ht="15">
       <c r="B155" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C155" t="s">
         <v>196</v>
@@ -10594,7 +10597,7 @@
     </row>
     <row r="156" spans="2:11" ht="15">
       <c r="B156" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C156" t="s">
         <v>199</v>
@@ -10626,7 +10629,7 @@
     </row>
     <row r="157" spans="2:11" ht="15">
       <c r="B157" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C157" t="s">
         <v>201</v>
@@ -10658,7 +10661,7 @@
     </row>
     <row r="158" spans="2:11" ht="15">
       <c r="B158" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C158" t="s">
         <v>203</v>
@@ -10690,7 +10693,7 @@
     </row>
     <row r="159" spans="2:11" ht="15">
       <c r="B159" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C159" t="s">
         <v>205</v>
@@ -10722,7 +10725,7 @@
     </row>
     <row r="160" spans="2:11" ht="15">
       <c r="B160" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C160" t="s">
         <v>1057</v>
@@ -10754,7 +10757,7 @@
     </row>
     <row r="161" spans="2:11" ht="15">
       <c r="B161" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C161" t="s">
         <v>207</v>
@@ -10786,7 +10789,7 @@
     </row>
     <row r="162" spans="2:11" ht="15">
       <c r="B162" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C162" t="s">
         <v>1078</v>
@@ -10818,7 +10821,7 @@
     </row>
     <row r="163" spans="2:11" ht="15">
       <c r="B163" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C163" t="s">
         <v>209</v>
@@ -15150,7 +15153,7 @@
         <v>12</v>
       </c>
       <c r="G298" t="s">
-        <v>1268</v>
+        <v>1752</v>
       </c>
       <c r="H298" t="s">
         <v>16</v>
@@ -15182,7 +15185,7 @@
         <v>171</v>
       </c>
       <c r="G299" t="s">
-        <v>1424</v>
+        <v>1753</v>
       </c>
       <c r="H299" t="s">
         <v>184</v>
@@ -15214,7 +15217,7 @@
         <v>12</v>
       </c>
       <c r="G300" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H300" t="s">
         <v>538</v>
@@ -15246,7 +15249,7 @@
         <v>12</v>
       </c>
       <c r="G301" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H301" t="s">
         <v>541</v>
@@ -15278,7 +15281,7 @@
         <v>26</v>
       </c>
       <c r="G302" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H302" t="s">
         <v>16</v>
@@ -15310,7 +15313,7 @@
         <v>176</v>
       </c>
       <c r="G303" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H303" t="s">
         <v>76</v>
@@ -15342,7 +15345,7 @@
         <v>176</v>
       </c>
       <c r="G304" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H304" t="s">
         <v>76</v>
@@ -15374,7 +15377,7 @@
         <v>176</v>
       </c>
       <c r="G305" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H305" t="s">
         <v>76</v>
@@ -15406,7 +15409,7 @@
         <v>176</v>
       </c>
       <c r="G306" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H306" t="s">
         <v>76</v>
@@ -15438,7 +15441,7 @@
         <v>50</v>
       </c>
       <c r="G307" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H307" t="s">
         <v>48</v>
@@ -15470,7 +15473,7 @@
         <v>12</v>
       </c>
       <c r="G308" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H308" t="s">
         <v>553</v>
@@ -15502,7 +15505,7 @@
         <v>12</v>
       </c>
       <c r="G309" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H309" t="s">
         <v>556</v>
@@ -15534,7 +15537,7 @@
         <v>176</v>
       </c>
       <c r="G310" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H310" t="s">
         <v>76</v>
@@ -15598,7 +15601,7 @@
         <v>50</v>
       </c>
       <c r="G312" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H312" t="s">
         <v>44</v>
@@ -15630,7 +15633,7 @@
         <v>176</v>
       </c>
       <c r="G313" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H313" t="s">
         <v>76</v>
@@ -15662,7 +15665,7 @@
         <v>12</v>
       </c>
       <c r="G314" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H314" t="s">
         <v>78</v>
@@ -15694,7 +15697,7 @@
         <v>12</v>
       </c>
       <c r="G315" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H315" t="s">
         <v>566</v>
@@ -15726,7 +15729,7 @@
         <v>176</v>
       </c>
       <c r="G316" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H316" t="s">
         <v>76</v>
@@ -15758,7 +15761,7 @@
         <v>12</v>
       </c>
       <c r="G317" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H317" t="s">
         <v>99</v>
@@ -15790,7 +15793,7 @@
         <v>12</v>
       </c>
       <c r="G318" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H318" t="s">
         <v>572</v>
@@ -15822,7 +15825,7 @@
         <v>50</v>
       </c>
       <c r="G319" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H319" t="s">
         <v>48</v>
@@ -15854,7 +15857,7 @@
         <v>12</v>
       </c>
       <c r="G320" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H320" t="s">
         <v>73</v>
@@ -15886,7 +15889,7 @@
         <v>176</v>
       </c>
       <c r="G321" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H321" t="s">
         <v>76</v>
@@ -15918,7 +15921,7 @@
         <v>176</v>
       </c>
       <c r="G322" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H322" t="s">
         <v>76</v>
@@ -15950,7 +15953,7 @@
         <v>176</v>
       </c>
       <c r="G323" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H323" t="s">
         <v>76</v>
@@ -15982,7 +15985,7 @@
         <v>176</v>
       </c>
       <c r="G324" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H324" t="s">
         <v>76</v>
@@ -16014,7 +16017,7 @@
         <v>12</v>
       </c>
       <c r="G325" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H325" t="s">
         <v>73</v>
@@ -16046,7 +16049,7 @@
         <v>12</v>
       </c>
       <c r="G326" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H326" t="s">
         <v>585</v>
@@ -16078,7 +16081,7 @@
         <v>12</v>
       </c>
       <c r="G327" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H327" t="s">
         <v>587</v>
@@ -16110,7 +16113,7 @@
         <v>176</v>
       </c>
       <c r="G328" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H328" t="s">
         <v>76</v>
@@ -16142,7 +16145,7 @@
         <v>12</v>
       </c>
       <c r="G329" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H329" t="s">
         <v>78</v>
@@ -16174,7 +16177,7 @@
         <v>176</v>
       </c>
       <c r="G330" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H330" t="s">
         <v>76</v>
@@ -16206,7 +16209,7 @@
         <v>176</v>
       </c>
       <c r="G331" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H331" t="s">
         <v>76</v>
@@ -16238,7 +16241,7 @@
         <v>12</v>
       </c>
       <c r="G332" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H332" t="s">
         <v>13</v>
@@ -16270,7 +16273,7 @@
         <v>12</v>
       </c>
       <c r="G333" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H333" t="s">
         <v>598</v>
@@ -16302,7 +16305,7 @@
         <v>176</v>
       </c>
       <c r="G334" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H334" t="s">
         <v>76</v>
@@ -16334,7 +16337,7 @@
         <v>176</v>
       </c>
       <c r="G335" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H335" t="s">
         <v>76</v>
@@ -16366,7 +16369,7 @@
         <v>176</v>
       </c>
       <c r="G336" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H336" t="s">
         <v>76</v>
@@ -16398,7 +16401,7 @@
         <v>605</v>
       </c>
       <c r="G337" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H337" t="s">
         <v>606</v>
@@ -16430,7 +16433,7 @@
         <v>176</v>
       </c>
       <c r="G338" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H338" t="s">
         <v>76</v>
@@ -16462,7 +16465,7 @@
         <v>176</v>
       </c>
       <c r="G339" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H339" t="s">
         <v>76</v>
@@ -16494,7 +16497,7 @@
         <v>12</v>
       </c>
       <c r="G340" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H340" t="s">
         <v>78</v>
@@ -16526,7 +16529,7 @@
         <v>26</v>
       </c>
       <c r="G341" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H341" t="s">
         <v>32</v>
@@ -16558,7 +16561,7 @@
         <v>50</v>
       </c>
       <c r="G342" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H342" t="s">
         <v>16</v>
@@ -16622,7 +16625,7 @@
         <v>26</v>
       </c>
       <c r="G344" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H344" t="s">
         <v>27</v>
@@ -16654,7 +16657,7 @@
         <v>617</v>
       </c>
       <c r="G345" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H345" t="s">
         <v>618</v>
@@ -16686,7 +16689,7 @@
         <v>12</v>
       </c>
       <c r="G346" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H346" t="s">
         <v>318</v>
@@ -16718,7 +16721,7 @@
         <v>12</v>
       </c>
       <c r="G347" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H347" t="s">
         <v>340</v>
@@ -16750,7 +16753,7 @@
         <v>176</v>
       </c>
       <c r="G348" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H348" t="s">
         <v>76</v>
@@ -16782,7 +16785,7 @@
         <v>176</v>
       </c>
       <c r="G349" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H349" t="s">
         <v>76</v>
@@ -16814,7 +16817,7 @@
         <v>176</v>
       </c>
       <c r="G350" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H350" t="s">
         <v>76</v>
@@ -16846,7 +16849,7 @@
         <v>12</v>
       </c>
       <c r="G351" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H351" t="s">
         <v>627</v>
@@ -16878,7 +16881,7 @@
         <v>176</v>
       </c>
       <c r="G352" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H352" t="s">
         <v>76</v>
@@ -16910,7 +16913,7 @@
         <v>12</v>
       </c>
       <c r="G353" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H353" t="s">
         <v>66</v>
@@ -16942,7 +16945,7 @@
         <v>176</v>
       </c>
       <c r="G354" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H354" t="s">
         <v>76</v>
@@ -16974,7 +16977,7 @@
         <v>26</v>
       </c>
       <c r="G355" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H355" t="s">
         <v>27</v>
@@ -17006,7 +17009,7 @@
         <v>26</v>
       </c>
       <c r="G356" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H356" t="s">
         <v>32</v>
@@ -17038,7 +17041,7 @@
         <v>50</v>
       </c>
       <c r="G357" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H357" t="s">
         <v>510</v>
@@ -17070,7 +17073,7 @@
         <v>176</v>
       </c>
       <c r="G358" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H358" t="s">
         <v>76</v>
@@ -17102,7 +17105,7 @@
         <v>176</v>
       </c>
       <c r="G359" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H359" t="s">
         <v>76</v>
@@ -17134,7 +17137,7 @@
         <v>12</v>
       </c>
       <c r="G360" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H360" t="s">
         <v>78</v>
@@ -17166,7 +17169,7 @@
         <v>12</v>
       </c>
       <c r="G361" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H361" t="s">
         <v>16</v>
@@ -17230,7 +17233,7 @@
         <v>12</v>
       </c>
       <c r="G363" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H363" t="s">
         <v>92</v>
@@ -17262,7 +17265,7 @@
         <v>12</v>
       </c>
       <c r="G364" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H364" t="s">
         <v>92</v>
@@ -17294,7 +17297,7 @@
         <v>176</v>
       </c>
       <c r="G365" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H365" t="s">
         <v>76</v>
@@ -17326,7 +17329,7 @@
         <v>12</v>
       </c>
       <c r="G366" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H366" t="s">
         <v>654</v>
@@ -17358,7 +17361,7 @@
         <v>176</v>
       </c>
       <c r="G367" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H367" t="s">
         <v>76</v>
@@ -17390,7 +17393,7 @@
         <v>12</v>
       </c>
       <c r="G368" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H368" t="s">
         <v>78</v>
@@ -17422,7 +17425,7 @@
         <v>176</v>
       </c>
       <c r="G369" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H369" t="s">
         <v>76</v>
@@ -17454,7 +17457,7 @@
         <v>12</v>
       </c>
       <c r="G370" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H370" t="s">
         <v>66</v>
@@ -17486,7 +17489,7 @@
         <v>176</v>
       </c>
       <c r="G371" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H371" t="s">
         <v>76</v>
@@ -17518,7 +17521,7 @@
         <v>65</v>
       </c>
       <c r="G372" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H372" t="s">
         <v>618</v>
@@ -17550,7 +17553,7 @@
         <v>12</v>
       </c>
       <c r="G373" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H373" t="s">
         <v>30</v>
@@ -17582,7 +17585,7 @@
         <v>12</v>
       </c>
       <c r="G374" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H374" t="s">
         <v>654</v>
@@ -17614,7 +17617,7 @@
         <v>12</v>
       </c>
       <c r="G375" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H375" t="s">
         <v>553</v>
@@ -17646,7 +17649,7 @@
         <v>12</v>
       </c>
       <c r="G376" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H376" t="s">
         <v>340</v>
@@ -17678,7 +17681,7 @@
         <v>12</v>
       </c>
       <c r="G377" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H377" t="s">
         <v>654</v>
@@ -17710,7 +17713,7 @@
         <v>674</v>
       </c>
       <c r="G378" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H378" t="s">
         <v>42</v>
@@ -17742,7 +17745,7 @@
         <v>12</v>
       </c>
       <c r="G379" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H379" t="s">
         <v>99</v>
@@ -17774,7 +17777,7 @@
         <v>12</v>
       </c>
       <c r="G380" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H380" t="s">
         <v>66</v>
@@ -17806,7 +17809,7 @@
         <v>12</v>
       </c>
       <c r="G381" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H381" t="s">
         <v>16</v>
@@ -17838,7 +17841,7 @@
         <v>12</v>
       </c>
       <c r="G382" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H382" t="s">
         <v>32</v>
@@ -17870,7 +17873,7 @@
         <v>176</v>
       </c>
       <c r="G383" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H383" t="s">
         <v>76</v>
@@ -17902,7 +17905,7 @@
         <v>26</v>
       </c>
       <c r="G384" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H384" t="s">
         <v>32</v>
@@ -17934,7 +17937,7 @@
         <v>176</v>
       </c>
       <c r="G385" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H385" t="s">
         <v>76</v>
@@ -17966,7 +17969,7 @@
         <v>176</v>
       </c>
       <c r="G386" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H386" t="s">
         <v>76</v>
@@ -17998,7 +18001,7 @@
         <v>12</v>
       </c>
       <c r="G387" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H387" t="s">
         <v>99</v>
@@ -18030,7 +18033,7 @@
         <v>617</v>
       </c>
       <c r="G388" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H388" t="s">
         <v>697</v>
@@ -18062,7 +18065,7 @@
         <v>176</v>
       </c>
       <c r="G389" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H389" t="s">
         <v>76</v>
@@ -18094,10 +18097,10 @@
         <v>176</v>
       </c>
       <c r="G390" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H390" t="s">
         <v>1512</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1513</v>
       </c>
       <c r="I390" t="s">
         <v>405</v>
@@ -18126,7 +18129,7 @@
         <v>176</v>
       </c>
       <c r="G391" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H391" t="s">
         <v>76</v>
@@ -18158,7 +18161,7 @@
         <v>176</v>
       </c>
       <c r="G392" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H392" t="s">
         <v>76</v>
@@ -18190,7 +18193,7 @@
         <v>176</v>
       </c>
       <c r="G393" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H393" t="s">
         <v>76</v>
@@ -18222,7 +18225,7 @@
         <v>176</v>
       </c>
       <c r="G394" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H394" t="s">
         <v>76</v>
@@ -18254,7 +18257,7 @@
         <v>26</v>
       </c>
       <c r="G395" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H395" t="s">
         <v>32</v>
@@ -18286,7 +18289,7 @@
         <v>26</v>
       </c>
       <c r="G396" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H396" t="s">
         <v>27</v>
@@ -18350,7 +18353,7 @@
         <v>176</v>
       </c>
       <c r="G398" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H398" t="s">
         <v>76</v>
@@ -18414,7 +18417,7 @@
         <v>12</v>
       </c>
       <c r="G400" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H400" t="s">
         <v>715</v>
@@ -18446,7 +18449,7 @@
         <v>176</v>
       </c>
       <c r="G401" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H401" t="s">
         <v>76</v>
@@ -18510,7 +18513,7 @@
         <v>617</v>
       </c>
       <c r="G403" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H403" t="s">
         <v>720</v>
@@ -18574,7 +18577,7 @@
         <v>176</v>
       </c>
       <c r="G405" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H405" t="s">
         <v>76</v>
@@ -18606,7 +18609,7 @@
         <v>176</v>
       </c>
       <c r="G406" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H406" t="s">
         <v>76</v>
@@ -18670,7 +18673,7 @@
         <v>176</v>
       </c>
       <c r="G408" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H408" t="s">
         <v>76</v>
@@ -18702,7 +18705,7 @@
         <v>176</v>
       </c>
       <c r="G409" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H409" t="s">
         <v>76</v>
@@ -18734,7 +18737,7 @@
         <v>176</v>
       </c>
       <c r="G410" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H410" t="s">
         <v>76</v>
@@ -18766,7 +18769,7 @@
         <v>176</v>
       </c>
       <c r="G411" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H411" t="s">
         <v>76</v>
@@ -18798,7 +18801,7 @@
         <v>176</v>
       </c>
       <c r="G412" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H412" t="s">
         <v>76</v>
@@ -18830,7 +18833,7 @@
         <v>176</v>
       </c>
       <c r="G413" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H413" t="s">
         <v>76</v>
@@ -18862,7 +18865,7 @@
         <v>12</v>
       </c>
       <c r="G414" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H414" t="s">
         <v>73</v>
@@ -18894,7 +18897,7 @@
         <v>12</v>
       </c>
       <c r="G415" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H415" t="s">
         <v>741</v>
@@ -18926,7 +18929,7 @@
         <v>176</v>
       </c>
       <c r="G416" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H416" t="s">
         <v>76</v>
@@ -18958,7 +18961,7 @@
         <v>12</v>
       </c>
       <c r="G417" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H417" t="s">
         <v>556</v>
@@ -18990,7 +18993,7 @@
         <v>12</v>
       </c>
       <c r="G418" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H418" t="s">
         <v>16</v>
@@ -19022,7 +19025,7 @@
         <v>50</v>
       </c>
       <c r="G419" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H419" t="s">
         <v>78</v>
@@ -19054,7 +19057,7 @@
         <v>12</v>
       </c>
       <c r="G420" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H420" t="s">
         <v>66</v>
@@ -19086,7 +19089,7 @@
         <v>12</v>
       </c>
       <c r="G421" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H421" t="s">
         <v>32</v>
@@ -19118,7 +19121,7 @@
         <v>12</v>
       </c>
       <c r="G422" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H422" t="s">
         <v>66</v>
@@ -19150,7 +19153,7 @@
         <v>12</v>
       </c>
       <c r="G423" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H423" t="s">
         <v>73</v>
@@ -19182,7 +19185,7 @@
         <v>176</v>
       </c>
       <c r="G424" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H424" t="s">
         <v>76</v>
@@ -19214,7 +19217,7 @@
         <v>176</v>
       </c>
       <c r="G425" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H425" t="s">
         <v>76</v>
@@ -19246,7 +19249,7 @@
         <v>176</v>
       </c>
       <c r="G426" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H426" t="s">
         <v>76</v>
@@ -19310,7 +19313,7 @@
         <v>176</v>
       </c>
       <c r="G428" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H428" t="s">
         <v>76</v>
@@ -19342,7 +19345,7 @@
         <v>176</v>
       </c>
       <c r="G429" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H429" t="s">
         <v>76</v>
@@ -19374,7 +19377,7 @@
         <v>176</v>
       </c>
       <c r="G430" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H430" t="s">
         <v>76</v>
@@ -19406,7 +19409,7 @@
         <v>176</v>
       </c>
       <c r="G431" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H431" t="s">
         <v>76</v>
@@ -19438,7 +19441,7 @@
         <v>12</v>
       </c>
       <c r="G432" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H432" t="s">
         <v>400</v>
@@ -19470,7 +19473,7 @@
         <v>176</v>
       </c>
       <c r="G433" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H433" t="s">
         <v>76</v>
@@ -19502,7 +19505,7 @@
         <v>176</v>
       </c>
       <c r="G434" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H434" t="s">
         <v>76</v>
@@ -19534,7 +19537,7 @@
         <v>12</v>
       </c>
       <c r="G435" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H435" t="s">
         <v>66</v>
@@ -19566,7 +19569,7 @@
         <v>12</v>
       </c>
       <c r="G436" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H436" t="s">
         <v>73</v>
@@ -19598,7 +19601,7 @@
         <v>12</v>
       </c>
       <c r="G437" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H437" t="s">
         <v>99</v>
@@ -19630,7 +19633,7 @@
         <v>12</v>
       </c>
       <c r="G438" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H438" t="s">
         <v>400</v>
@@ -19662,7 +19665,7 @@
         <v>12</v>
       </c>
       <c r="G439" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H439" t="s">
         <v>78</v>
@@ -19694,7 +19697,7 @@
         <v>176</v>
       </c>
       <c r="G440" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H440" t="s">
         <v>76</v>
@@ -19726,7 +19729,7 @@
         <v>176</v>
       </c>
       <c r="G441" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H441" t="s">
         <v>76</v>
@@ -19758,7 +19761,7 @@
         <v>176</v>
       </c>
       <c r="G442" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H442" t="s">
         <v>76</v>
@@ -19790,7 +19793,7 @@
         <v>176</v>
       </c>
       <c r="G443" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H443" t="s">
         <v>76</v>
@@ -19822,7 +19825,7 @@
         <v>12</v>
       </c>
       <c r="G444" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H444" t="s">
         <v>78</v>
@@ -19854,7 +19857,7 @@
         <v>176</v>
       </c>
       <c r="G445" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H445" t="s">
         <v>76</v>
@@ -19892,7 +19895,7 @@
         <v>76</v>
       </c>
       <c r="I446" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J446" t="s">
         <v>76</v>
@@ -19918,7 +19921,7 @@
         <v>176</v>
       </c>
       <c r="G447" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H447" t="s">
         <v>76</v>
@@ -19950,7 +19953,7 @@
         <v>176</v>
       </c>
       <c r="G448" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H448" t="s">
         <v>76</v>
@@ -19982,7 +19985,7 @@
         <v>26</v>
       </c>
       <c r="G449" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H449" t="s">
         <v>32</v>
@@ -20014,7 +20017,7 @@
         <v>617</v>
       </c>
       <c r="G450" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H450" t="s">
         <v>790</v>
@@ -20046,7 +20049,7 @@
         <v>12</v>
       </c>
       <c r="G451" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H451" t="s">
         <v>92</v>
@@ -20078,7 +20081,7 @@
         <v>176</v>
       </c>
       <c r="G452" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H452" t="s">
         <v>76</v>
@@ -20110,7 +20113,7 @@
         <v>176</v>
       </c>
       <c r="G453" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H453" t="s">
         <v>76</v>
@@ -20142,7 +20145,7 @@
         <v>176</v>
       </c>
       <c r="G454" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H454" t="s">
         <v>76</v>
@@ -20174,7 +20177,7 @@
         <v>12</v>
       </c>
       <c r="G455" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H455" t="s">
         <v>400</v>
@@ -20206,7 +20209,7 @@
         <v>12</v>
       </c>
       <c r="G456" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H456" t="s">
         <v>797</v>
@@ -20238,7 +20241,7 @@
         <v>26</v>
       </c>
       <c r="G457" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H457" t="s">
         <v>32</v>
@@ -20270,7 +20273,7 @@
         <v>26</v>
       </c>
       <c r="G458" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H458" t="s">
         <v>27</v>
@@ -20302,7 +20305,7 @@
         <v>26</v>
       </c>
       <c r="G459" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H459" t="s">
         <v>27</v>
@@ -20334,7 +20337,7 @@
         <v>176</v>
       </c>
       <c r="G460" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H460" t="s">
         <v>76</v>
@@ -20366,7 +20369,7 @@
         <v>12</v>
       </c>
       <c r="G461" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H461" t="s">
         <v>805</v>
@@ -20398,7 +20401,7 @@
         <v>617</v>
       </c>
       <c r="G462" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H462" t="s">
         <v>807</v>
@@ -20430,7 +20433,7 @@
         <v>12</v>
       </c>
       <c r="G463" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H463" t="s">
         <v>598</v>
@@ -20462,7 +20465,7 @@
         <v>12</v>
       </c>
       <c r="G464" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H464" t="s">
         <v>16</v>
@@ -20494,7 +20497,7 @@
         <v>26</v>
       </c>
       <c r="G465" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H465" t="s">
         <v>16</v>
@@ -20526,7 +20529,7 @@
         <v>176</v>
       </c>
       <c r="G466" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H466" t="s">
         <v>76</v>
@@ -20590,7 +20593,7 @@
         <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H468" t="s">
         <v>598</v>
@@ -20654,7 +20657,7 @@
         <v>26</v>
       </c>
       <c r="G470" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H470" t="s">
         <v>32</v>
@@ -20686,7 +20689,7 @@
         <v>12</v>
       </c>
       <c r="G471" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H471" t="s">
         <v>99</v>
@@ -20718,7 +20721,7 @@
         <v>26</v>
       </c>
       <c r="G472" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H472" t="s">
         <v>73</v>
@@ -20750,7 +20753,7 @@
         <v>26</v>
       </c>
       <c r="G473" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H473" t="s">
         <v>73</v>
@@ -20782,7 +20785,7 @@
         <v>176</v>
       </c>
       <c r="G474" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H474" t="s">
         <v>76</v>
@@ -20814,7 +20817,7 @@
         <v>176</v>
       </c>
       <c r="G475" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H475" t="s">
         <v>76</v>
@@ -20846,7 +20849,7 @@
         <v>12</v>
       </c>
       <c r="G476" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H476" t="s">
         <v>16</v>
@@ -20878,7 +20881,7 @@
         <v>12</v>
       </c>
       <c r="G477" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H477" t="s">
         <v>73</v>
@@ -20910,7 +20913,7 @@
         <v>50</v>
       </c>
       <c r="G478" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H478" t="s">
         <v>32</v>
@@ -20942,7 +20945,7 @@
         <v>176</v>
       </c>
       <c r="G479" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H479" t="s">
         <v>76</v>
@@ -20974,7 +20977,7 @@
         <v>176</v>
       </c>
       <c r="G480" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H480" t="s">
         <v>76</v>
@@ -21006,7 +21009,7 @@
         <v>176</v>
       </c>
       <c r="G481" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H481" t="s">
         <v>76</v>
@@ -21038,7 +21041,7 @@
         <v>50</v>
       </c>
       <c r="G482" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H482" t="s">
         <v>16</v>
@@ -21358,7 +21361,7 @@
         <v>12</v>
       </c>
       <c r="G492" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H492" t="s">
         <v>553</v>
@@ -21390,7 +21393,7 @@
         <v>12</v>
       </c>
       <c r="G493" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H493" t="s">
         <v>46</v>
@@ -21422,7 +21425,7 @@
         <v>12</v>
       </c>
       <c r="G494" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H494" t="s">
         <v>92</v>
@@ -21454,7 +21457,7 @@
         <v>12</v>
       </c>
       <c r="G495" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H495" t="s">
         <v>13</v>
@@ -21518,7 +21521,7 @@
         <v>176</v>
       </c>
       <c r="G497" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H497" t="s">
         <v>76</v>
@@ -21550,7 +21553,7 @@
         <v>26</v>
       </c>
       <c r="G498" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H498" t="s">
         <v>27</v>
@@ -21582,7 +21585,7 @@
         <v>26</v>
       </c>
       <c r="G499" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H499" t="s">
         <v>27</v>
@@ -21646,7 +21649,7 @@
         <v>26</v>
       </c>
       <c r="G501" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H501" t="s">
         <v>853</v>
@@ -21678,7 +21681,7 @@
         <v>26</v>
       </c>
       <c r="G502" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H502" t="s">
         <v>27</v>
@@ -21710,7 +21713,7 @@
         <v>26</v>
       </c>
       <c r="G503" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H503" t="s">
         <v>73</v>
@@ -21742,7 +21745,7 @@
         <v>26</v>
       </c>
       <c r="G504" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H504" t="s">
         <v>73</v>
@@ -21774,7 +21777,7 @@
         <v>26</v>
       </c>
       <c r="G505" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H505" t="s">
         <v>73</v>
@@ -21806,7 +21809,7 @@
         <v>26</v>
       </c>
       <c r="G506" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H506" t="s">
         <v>73</v>
@@ -21838,7 +21841,7 @@
         <v>26</v>
       </c>
       <c r="G507" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H507" t="s">
         <v>598</v>
@@ -21870,7 +21873,7 @@
         <v>12</v>
       </c>
       <c r="G508" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H508" t="s">
         <v>866</v>
@@ -21890,7 +21893,7 @@
         <v>8</v>
       </c>
       <c r="C509" s="6" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D509" t="s">
         <v>18</v>
@@ -21902,10 +21905,10 @@
         <v>12</v>
       </c>
       <c r="G509" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H509" t="s">
         <v>1605</v>
-      </c>
-      <c r="H509" t="s">
-        <v>1606</v>
       </c>
       <c r="I509" t="s">
         <v>341</v>
@@ -21934,7 +21937,7 @@
         <v>176</v>
       </c>
       <c r="G510" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H510" t="s">
         <v>76</v>
@@ -21966,7 +21969,7 @@
         <v>12</v>
       </c>
       <c r="G511" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H511" t="s">
         <v>44</v>
@@ -21998,7 +22001,7 @@
         <v>26</v>
       </c>
       <c r="G512" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H512" t="s">
         <v>32</v>
@@ -22030,7 +22033,7 @@
         <v>26</v>
       </c>
       <c r="G513" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H513" t="s">
         <v>73</v>
@@ -22094,7 +22097,7 @@
         <v>26</v>
       </c>
       <c r="G515" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H515" t="s">
         <v>32</v>
@@ -22126,7 +22129,7 @@
         <v>12</v>
       </c>
       <c r="G516" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H516" t="s">
         <v>48</v>
@@ -22158,7 +22161,7 @@
         <v>12</v>
       </c>
       <c r="G517" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H517" t="s">
         <v>876</v>
@@ -22190,7 +22193,7 @@
         <v>176</v>
       </c>
       <c r="G518" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H518" t="s">
         <v>76</v>
@@ -22222,7 +22225,7 @@
         <v>12</v>
       </c>
       <c r="G519" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H519" t="s">
         <v>78</v>
@@ -22286,7 +22289,7 @@
         <v>176</v>
       </c>
       <c r="G521" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H521" t="s">
         <v>76</v>
@@ -22318,7 +22321,7 @@
         <v>12</v>
       </c>
       <c r="G522" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H522" t="s">
         <v>400</v>
@@ -22350,7 +22353,7 @@
         <v>12</v>
       </c>
       <c r="G523" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H523" t="s">
         <v>16</v>
@@ -22446,7 +22449,7 @@
         <v>26</v>
       </c>
       <c r="G526" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H526" t="s">
         <v>32</v>
@@ -22478,7 +22481,7 @@
         <v>176</v>
       </c>
       <c r="G527" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H527" t="s">
         <v>76</v>
@@ -22510,7 +22513,7 @@
         <v>176</v>
       </c>
       <c r="G528" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H528" t="s">
         <v>76</v>
@@ -22542,7 +22545,7 @@
         <v>12</v>
       </c>
       <c r="G529" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H529" t="s">
         <v>606</v>
@@ -22574,7 +22577,7 @@
         <v>176</v>
       </c>
       <c r="G530" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H530" t="s">
         <v>76</v>
@@ -22606,7 +22609,7 @@
         <v>12</v>
       </c>
       <c r="G531" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H531" t="s">
         <v>86</v>
@@ -22638,7 +22641,7 @@
         <v>26</v>
       </c>
       <c r="G532" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H532" t="s">
         <v>16</v>
@@ -22670,7 +22673,7 @@
         <v>26</v>
       </c>
       <c r="G533" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H533" t="s">
         <v>16</v>
@@ -22702,7 +22705,7 @@
         <v>50</v>
       </c>
       <c r="G534" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H534" t="s">
         <v>73</v>
@@ -22766,7 +22769,7 @@
         <v>12</v>
       </c>
       <c r="G536" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H536" t="s">
         <v>44</v>
@@ -22798,7 +22801,7 @@
         <v>12</v>
       </c>
       <c r="G537" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H537" t="s">
         <v>606</v>
@@ -22830,7 +22833,7 @@
         <v>26</v>
       </c>
       <c r="G538" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H538" t="s">
         <v>400</v>
@@ -22862,7 +22865,7 @@
         <v>26</v>
       </c>
       <c r="G539" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H539" t="s">
         <v>16</v>
@@ -22894,7 +22897,7 @@
         <v>176</v>
       </c>
       <c r="G540" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H540" t="s">
         <v>76</v>
@@ -22926,7 +22929,7 @@
         <v>26</v>
       </c>
       <c r="G541" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H541" t="s">
         <v>73</v>
@@ -22958,7 +22961,7 @@
         <v>12</v>
       </c>
       <c r="G542" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H542" t="s">
         <v>797</v>
@@ -22990,7 +22993,7 @@
         <v>26</v>
       </c>
       <c r="G543" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H543" t="s">
         <v>16</v>
@@ -23022,7 +23025,7 @@
         <v>12</v>
       </c>
       <c r="G544" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H544" t="s">
         <v>697</v>
@@ -23054,7 +23057,7 @@
         <v>26</v>
       </c>
       <c r="G545" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H545" t="s">
         <v>16</v>
@@ -23086,7 +23089,7 @@
         <v>12</v>
       </c>
       <c r="G546" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H546" t="s">
         <v>46</v>
@@ -23182,7 +23185,7 @@
         <v>12</v>
       </c>
       <c r="G549" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H549" t="s">
         <v>32</v>
@@ -23214,7 +23217,7 @@
         <v>12</v>
       </c>
       <c r="G550" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H550" t="s">
         <v>482</v>
@@ -23246,7 +23249,7 @@
         <v>176</v>
       </c>
       <c r="G551" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H551" t="s">
         <v>76</v>
@@ -23278,7 +23281,7 @@
         <v>617</v>
       </c>
       <c r="G552" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H552" t="s">
         <v>924</v>
@@ -23310,7 +23313,7 @@
         <v>26</v>
       </c>
       <c r="G553" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H553" t="s">
         <v>27</v>
@@ -23342,7 +23345,7 @@
         <v>12</v>
       </c>
       <c r="G554" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H554" t="s">
         <v>927</v>
@@ -23374,7 +23377,7 @@
         <v>12</v>
       </c>
       <c r="G555" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H555" t="s">
         <v>66</v>
@@ -23406,7 +23409,7 @@
         <v>176</v>
       </c>
       <c r="G556" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H556" t="s">
         <v>76</v>
@@ -23438,7 +23441,7 @@
         <v>12</v>
       </c>
       <c r="G557" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H557" t="s">
         <v>66</v>
@@ -23470,7 +23473,7 @@
         <v>12</v>
       </c>
       <c r="G558" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H558" t="s">
         <v>553</v>
@@ -23502,7 +23505,7 @@
         <v>176</v>
       </c>
       <c r="G559" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H559" t="s">
         <v>76</v>
@@ -23534,7 +23537,7 @@
         <v>12</v>
       </c>
       <c r="G560" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H560" t="s">
         <v>99</v>
@@ -23566,7 +23569,7 @@
         <v>26</v>
       </c>
       <c r="G561" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H561" t="s">
         <v>32</v>
@@ -23630,7 +23633,7 @@
         <v>26</v>
       </c>
       <c r="G563" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H563" t="s">
         <v>32</v>
@@ -23662,7 +23665,7 @@
         <v>26</v>
       </c>
       <c r="G564" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H564" t="s">
         <v>13</v>
@@ -23694,7 +23697,7 @@
         <v>26</v>
       </c>
       <c r="G565" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H565" t="s">
         <v>44</v>
@@ -23726,7 +23729,7 @@
         <v>26</v>
       </c>
       <c r="G566" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H566" t="s">
         <v>44</v>
@@ -23758,7 +23761,7 @@
         <v>26</v>
       </c>
       <c r="G567" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H567" t="s">
         <v>32</v>
@@ -23790,7 +23793,7 @@
         <v>26</v>
       </c>
       <c r="G568" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H568" t="s">
         <v>32</v>
@@ -23822,7 +23825,7 @@
         <v>176</v>
       </c>
       <c r="G569" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H569" t="s">
         <v>76</v>
@@ -23854,7 +23857,7 @@
         <v>12</v>
       </c>
       <c r="G570" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H570" t="s">
         <v>99</v>
@@ -23886,7 +23889,7 @@
         <v>12</v>
       </c>
       <c r="G571" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H571" t="s">
         <v>46</v>
@@ -23918,7 +23921,7 @@
         <v>12</v>
       </c>
       <c r="G572" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H572" t="s">
         <v>86</v>
@@ -23982,7 +23985,7 @@
         <v>12</v>
       </c>
       <c r="G574" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H574" t="s">
         <v>99</v>
@@ -24014,7 +24017,7 @@
         <v>12</v>
       </c>
       <c r="G575" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H575" t="s">
         <v>78</v>
@@ -24046,7 +24049,7 @@
         <v>50</v>
       </c>
       <c r="G576" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H576" t="s">
         <v>16</v>
@@ -24078,7 +24081,7 @@
         <v>26</v>
       </c>
       <c r="G577" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H577" t="s">
         <v>46</v>
@@ -24110,7 +24113,7 @@
         <v>12</v>
       </c>
       <c r="G578" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H578" t="s">
         <v>99</v>
@@ -24142,7 +24145,7 @@
         <v>12</v>
       </c>
       <c r="G579" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H579" t="s">
         <v>956</v>
@@ -24174,7 +24177,7 @@
         <v>12</v>
       </c>
       <c r="G580" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H580" t="s">
         <v>44</v>
@@ -24206,7 +24209,7 @@
         <v>176</v>
       </c>
       <c r="G581" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H581" t="s">
         <v>76</v>
@@ -24238,7 +24241,7 @@
         <v>176</v>
       </c>
       <c r="G582" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H582" t="s">
         <v>76</v>
@@ -24270,7 +24273,7 @@
         <v>12</v>
       </c>
       <c r="G583" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H583" t="s">
         <v>16</v>
@@ -24302,7 +24305,7 @@
         <v>12</v>
       </c>
       <c r="G584" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H584" t="s">
         <v>866</v>
@@ -24334,7 +24337,7 @@
         <v>176</v>
       </c>
       <c r="G585" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H585" t="s">
         <v>76</v>
@@ -24462,7 +24465,7 @@
         <v>26</v>
       </c>
       <c r="G589" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H589" t="s">
         <v>973</v>
@@ -24494,7 +24497,7 @@
         <v>12</v>
       </c>
       <c r="G590" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H590" t="s">
         <v>16</v>
@@ -24526,7 +24529,7 @@
         <v>176</v>
       </c>
       <c r="G591" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H591" t="s">
         <v>76</v>
@@ -24558,7 +24561,7 @@
         <v>176</v>
       </c>
       <c r="G592" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H592" t="s">
         <v>76</v>
@@ -24590,7 +24593,7 @@
         <v>176</v>
       </c>
       <c r="G593" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H593" t="s">
         <v>76</v>
@@ -24622,7 +24625,7 @@
         <v>12</v>
       </c>
       <c r="G594" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H594" t="s">
         <v>815</v>
@@ -24654,7 +24657,7 @@
         <v>176</v>
       </c>
       <c r="G595" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H595" t="s">
         <v>76</v>
@@ -24686,7 +24689,7 @@
         <v>50</v>
       </c>
       <c r="G596" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H596" t="s">
         <v>44</v>
@@ -24718,7 +24721,7 @@
         <v>12</v>
       </c>
       <c r="G597" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H597" t="s">
         <v>44</v>
@@ -24750,7 +24753,7 @@
         <v>12</v>
       </c>
       <c r="G598" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H598" t="s">
         <v>13</v>
@@ -24782,7 +24785,7 @@
         <v>12</v>
       </c>
       <c r="G599" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H599" t="s">
         <v>13</v>
@@ -24814,7 +24817,7 @@
         <v>12</v>
       </c>
       <c r="G600" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H600" t="s">
         <v>78</v>
@@ -24846,7 +24849,7 @@
         <v>12</v>
       </c>
       <c r="G601" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H601" t="s">
         <v>44</v>
@@ -24878,7 +24881,7 @@
         <v>12</v>
       </c>
       <c r="G602" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H602" t="s">
         <v>94</v>
@@ -24910,7 +24913,7 @@
         <v>12</v>
       </c>
       <c r="G603" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H603" t="s">
         <v>13</v>
@@ -24942,7 +24945,7 @@
         <v>12</v>
       </c>
       <c r="G604" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H604" t="s">
         <v>99</v>
@@ -24974,7 +24977,7 @@
         <v>12</v>
       </c>
       <c r="G605" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H605" t="s">
         <v>998</v>
@@ -25006,7 +25009,7 @@
         <v>26</v>
       </c>
       <c r="G606" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H606" t="s">
         <v>27</v>
@@ -25038,7 +25041,7 @@
         <v>26</v>
       </c>
       <c r="G607" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H607" t="s">
         <v>32</v>
@@ -25070,7 +25073,7 @@
         <v>176</v>
       </c>
       <c r="G608" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H608" t="s">
         <v>76</v>
@@ -25102,7 +25105,7 @@
         <v>176</v>
       </c>
       <c r="G609" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H609" t="s">
         <v>76</v>
@@ -25134,7 +25137,7 @@
         <v>176</v>
       </c>
       <c r="G610" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H610" t="s">
         <v>76</v>
@@ -25166,7 +25169,7 @@
         <v>176</v>
       </c>
       <c r="G611" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H611" t="s">
         <v>76</v>
@@ -25198,7 +25201,7 @@
         <v>176</v>
       </c>
       <c r="G612" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H612" t="s">
         <v>76</v>
@@ -25230,7 +25233,7 @@
         <v>12</v>
       </c>
       <c r="G613" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H613" t="s">
         <v>92</v>
@@ -25262,7 +25265,7 @@
         <v>12</v>
       </c>
       <c r="G614" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H614" t="s">
         <v>86</v>
@@ -25294,7 +25297,7 @@
         <v>12</v>
       </c>
       <c r="G615" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H615" t="s">
         <v>46</v>
@@ -25326,7 +25329,7 @@
         <v>12</v>
       </c>
       <c r="G616" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H616" t="s">
         <v>482</v>
@@ -25358,7 +25361,7 @@
         <v>176</v>
       </c>
       <c r="G617" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H617" t="s">
         <v>76</v>
@@ -25422,7 +25425,7 @@
         <v>12</v>
       </c>
       <c r="G619" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H619" t="s">
         <v>16</v>
@@ -25454,7 +25457,7 @@
         <v>12</v>
       </c>
       <c r="G620" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H620" t="s">
         <v>78</v>
@@ -25486,7 +25489,7 @@
         <v>12</v>
       </c>
       <c r="G621" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H621" t="s">
         <v>86</v>
@@ -25518,7 +25521,7 @@
         <v>674</v>
       </c>
       <c r="G622" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H622" t="s">
         <v>323</v>
@@ -25550,7 +25553,7 @@
         <v>50</v>
       </c>
       <c r="G623" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H623" t="s">
         <v>44</v>
@@ -25582,7 +25585,7 @@
         <v>50</v>
       </c>
       <c r="G624" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H624" t="s">
         <v>46</v>
@@ -25614,7 +25617,7 @@
         <v>12</v>
       </c>
       <c r="G625" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H625" t="s">
         <v>1129</v>
@@ -25646,7 +25649,7 @@
         <v>176</v>
       </c>
       <c r="G626" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H626" t="s">
         <v>76</v>
@@ -25678,7 +25681,7 @@
         <v>176</v>
       </c>
       <c r="G627" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H627" t="s">
         <v>76</v>
@@ -25710,7 +25713,7 @@
         <v>12</v>
       </c>
       <c r="G628" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H628" t="s">
         <v>73</v>
@@ -25742,7 +25745,7 @@
         <v>176</v>
       </c>
       <c r="G629" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H629" t="s">
         <v>76</v>
@@ -25774,7 +25777,7 @@
         <v>12</v>
       </c>
       <c r="G630" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H630" t="s">
         <v>94</v>
@@ -25806,7 +25809,7 @@
         <v>12</v>
       </c>
       <c r="G631" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H631" t="s">
         <v>13</v>
@@ -25838,7 +25841,7 @@
         <v>12</v>
       </c>
       <c r="G632" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H632" t="s">
         <v>44</v>
@@ -25870,7 +25873,7 @@
         <v>12</v>
       </c>
       <c r="G633" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H633" t="s">
         <v>13</v>
@@ -25902,7 +25905,7 @@
         <v>12</v>
       </c>
       <c r="G634" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H634" t="s">
         <v>44</v>
@@ -25934,7 +25937,7 @@
         <v>176</v>
       </c>
       <c r="G635" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H635" t="s">
         <v>76</v>
@@ -25966,7 +25969,7 @@
         <v>12</v>
       </c>
       <c r="G636" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H636" t="s">
         <v>99</v>
@@ -25998,7 +26001,7 @@
         <v>12</v>
       </c>
       <c r="G637" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H637" t="s">
         <v>19</v>
@@ -26030,7 +26033,7 @@
         <v>12</v>
       </c>
       <c r="G638" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H638" t="s">
         <v>66</v>
@@ -26062,7 +26065,7 @@
         <v>12</v>
       </c>
       <c r="G639" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H639" t="s">
         <v>66</v>
@@ -26094,7 +26097,7 @@
         <v>12</v>
       </c>
       <c r="G640" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H640" t="s">
         <v>1047</v>
@@ -26126,7 +26129,7 @@
         <v>176</v>
       </c>
       <c r="G641" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H641" t="s">
         <v>76</v>
@@ -26158,7 +26161,7 @@
         <v>176</v>
       </c>
       <c r="G642" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H642" t="s">
         <v>76</v>
@@ -26190,7 +26193,7 @@
         <v>176</v>
       </c>
       <c r="G643" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H643" t="s">
         <v>76</v>
@@ -26222,7 +26225,7 @@
         <v>12</v>
       </c>
       <c r="G644" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H644" t="s">
         <v>46</v>
@@ -26254,7 +26257,7 @@
         <v>12</v>
       </c>
       <c r="G645" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H645" t="s">
         <v>654</v>
@@ -26286,10 +26289,10 @@
         <v>12</v>
       </c>
       <c r="G646" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H646" t="s">
         <v>1724</v>
-      </c>
-      <c r="H646" t="s">
-        <v>1725</v>
       </c>
       <c r="I646" t="s">
         <v>357</v>
@@ -26318,7 +26321,7 @@
         <v>176</v>
       </c>
       <c r="G647" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H647" t="s">
         <v>76</v>
@@ -26382,7 +26385,7 @@
         <v>12</v>
       </c>
       <c r="G649" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H649" t="s">
         <v>1059</v>
@@ -26414,7 +26417,7 @@
         <v>176</v>
       </c>
       <c r="G650" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H650" t="s">
         <v>76</v>
@@ -26446,7 +26449,7 @@
         <v>176</v>
       </c>
       <c r="G651" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H651" t="s">
         <v>76</v>
@@ -26478,7 +26481,7 @@
         <v>26</v>
       </c>
       <c r="G652" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H652" t="s">
         <v>1063</v>
@@ -26510,7 +26513,7 @@
         <v>26</v>
       </c>
       <c r="G653" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H653" t="s">
         <v>32</v>
@@ -26542,7 +26545,7 @@
         <v>26</v>
       </c>
       <c r="G654" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H654" t="s">
         <v>1063</v>
@@ -26574,7 +26577,7 @@
         <v>26</v>
       </c>
       <c r="G655" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H655" t="s">
         <v>16</v>
@@ -26606,7 +26609,7 @@
         <v>26</v>
       </c>
       <c r="G656" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H656" t="s">
         <v>32</v>
@@ -26638,7 +26641,7 @@
         <v>12</v>
       </c>
       <c r="G657" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H657" t="s">
         <v>78</v>
@@ -26670,7 +26673,7 @@
         <v>26</v>
       </c>
       <c r="G658" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H658" t="s">
         <v>16</v>
@@ -26702,7 +26705,7 @@
         <v>26</v>
       </c>
       <c r="G659" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H659" t="s">
         <v>32</v>
@@ -26734,7 +26737,7 @@
         <v>12</v>
       </c>
       <c r="G660" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H660" t="s">
         <v>556</v>
@@ -26766,7 +26769,7 @@
         <v>50</v>
       </c>
       <c r="G661" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H661" t="s">
         <v>48</v>
@@ -26798,7 +26801,7 @@
         <v>50</v>
       </c>
       <c r="G662" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H662" t="s">
         <v>46</v>
@@ -26830,7 +26833,7 @@
         <v>50</v>
       </c>
       <c r="G663" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H663" t="s">
         <v>46</v>
@@ -26894,7 +26897,7 @@
         <v>50</v>
       </c>
       <c r="G665" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H665" t="s">
         <v>44</v>
@@ -26926,7 +26929,7 @@
         <v>12</v>
       </c>
       <c r="G666" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H666" t="s">
         <v>1079</v>
@@ -26958,7 +26961,7 @@
         <v>26</v>
       </c>
       <c r="G667" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H667" t="s">
         <v>1063</v>
@@ -26990,7 +26993,7 @@
         <v>176</v>
       </c>
       <c r="G668" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H668" t="s">
         <v>76</v>
@@ -27022,7 +27025,7 @@
         <v>176</v>
       </c>
       <c r="G669" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H669" t="s">
         <v>76</v>
@@ -27054,7 +27057,7 @@
         <v>176</v>
       </c>
       <c r="G670" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H670" t="s">
         <v>76</v>
@@ -27086,7 +27089,7 @@
         <v>176</v>
       </c>
       <c r="G671" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H671" t="s">
         <v>76</v>
@@ -27118,7 +27121,7 @@
         <v>65</v>
       </c>
       <c r="G672" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H672" t="s">
         <v>1089</v>
@@ -27150,7 +27153,7 @@
         <v>26</v>
       </c>
       <c r="G673" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H673" t="s">
         <v>27</v>

--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6692" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="1737">
   <si>
     <t>Type</t>
   </si>
@@ -5662,7 +5662,7 @@
   <dimension ref="B4:K686"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12516,6 +12516,12 @@
       <c r="I217" t="s">
         <v>175</v>
       </c>
+      <c r="J217" t="s">
+        <v>75</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="218" spans="2:11" ht="15">
       <c r="B218" s="2" t="s">

--- a/Terra Caribbean NEW SAMPLE R.xlsx
+++ b/Terra Caribbean NEW SAMPLE R.xlsx
@@ -5649,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K677"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A644" workbookViewId="0">
-      <selection activeCell="C647" sqref="C647"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D644" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7840,7 +7840,7 @@
       </c>
     </row>
     <row r="72" spans="2:11" ht="15">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
@@ -7872,7 +7872,7 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15">
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
@@ -10656,7 +10656,7 @@
       </c>
     </row>
     <row r="160" spans="2:11" ht="15">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>1699</v>
       </c>
       <c r="C160" t="s">
@@ -10688,7 +10688,7 @@
       </c>
     </row>
     <row r="161" spans="2:11" ht="15">
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>1699</v>
       </c>
       <c r="C161" t="s">
